--- a/published-data/fonds-solidarite/fds-2021-01-28/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-01-28/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -661,17 +661,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>692</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>674</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1803196.56</t>
+          <t>1801196.56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -755,17 +755,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1484</t>
+          <t>1485</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>1271</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13251147.61</t>
+          <t>13253147.61</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -7194,17 +7194,17 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>8230</t>
+          <t>8223</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>7883</t>
+          <t>7882</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>25803767.91</t>
+          <t>25649154.91</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7241,17 +7241,17 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>5072</t>
+          <t>5070</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>35265935.71</t>
+          <t>35213060.46</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
